--- a/Examples/tlpcc/tplcc_model.xlsx
+++ b/Examples/tlpcc/tplcc_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Proyectos\TaesLab\Examples\tlpcc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\tlpcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66B4418-1312-478E-853E-538B795F09D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC5C4FD-F849-449C-A99A-5F0E6BD8F5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="23670" windowHeight="12525" firstSheet="2" activeTab="5" xr2:uid="{BFFAA7C4-7D43-4B25-8524-41C5805C3139}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13095" windowHeight="15480" firstSheet="2" activeTab="3" xr2:uid="{BFFAA7C4-7D43-4B25-8524-41C5805C3139}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="1" r:id="rId1"/>
@@ -335,9 +335,6 @@
     <t>V13-V12</t>
   </si>
   <si>
-    <t>HPPH</t>
-  </si>
-  <si>
     <t>G9-G10</t>
   </si>
   <si>
@@ -471,6 +468,9 @@
   </si>
   <si>
     <t>WNST+WLPP+WIPP+WHPP+WCWP</t>
+  </si>
+  <si>
+    <t>IPEC</t>
   </si>
 </sst>
 </file>
@@ -1528,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76E8689-3982-4A5D-806A-6C42367E9EEF}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,13 +1555,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -1589,7 +1589,7 @@
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -1603,7 +1603,7 @@
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -1639,13 +1639,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -1653,13 +1653,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -1667,13 +1667,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
         <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -1681,13 +1681,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1695,13 +1695,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
         <v>95</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>96</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -1709,13 +1709,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
         <v>98</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>99</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
         <v>101</v>
-      </c>
-      <c r="B14" t="s">
-        <v>102</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
@@ -1737,10 +1737,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
         <v>103</v>
-      </c>
-      <c r="B15" t="s">
-        <v>104</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
         <v>105</v>
-      </c>
-      <c r="B16" t="s">
-        <v>106</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
@@ -1765,13 +1765,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -1779,13 +1779,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -1821,13 +1821,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
         <v>116</v>
       </c>
-      <c r="B21" t="s">
-        <v>117</v>
-      </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
         <v>119</v>
-      </c>
-      <c r="B23" t="s">
-        <v>120</v>
       </c>
       <c r="C23" t="s">
         <v>64</v>
@@ -1870,7 +1870,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D23</xm:sqref>
+          <xm:sqref>D11 D2:D10 D12:D23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1897,13 +1897,13 @@
         <v>35</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1917,12 +1917,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="2">
         <v>11</v>
@@ -1931,12 +1931,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="2">
         <v>11</v>
@@ -1945,12 +1945,12 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2">
         <v>11</v>
@@ -1959,12 +1959,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2">
         <v>11</v>
@@ -1973,12 +1973,12 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="2">
         <v>11</v>
@@ -1987,7 +1987,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1999,7 +1999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581469D6-935A-4294-89A2-CC24EABB20AD}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E25" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -2013,13 +2013,13 @@
         <v>35</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2755,7 +2755,7 @@
         <v>36</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/Examples/tlpcc/tplcc_model.xlsx
+++ b/Examples/tlpcc/tplcc_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\tlpcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC5C4FD-F849-449C-A99A-5F0E6BD8F5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5325A56C-5AA2-4226-BF11-043E20C6BD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13095" windowHeight="15480" firstSheet="2" activeTab="3" xr2:uid="{BFFAA7C4-7D43-4B25-8524-41C5805C3139}"/>
+    <workbookView xWindow="780" yWindow="750" windowWidth="21600" windowHeight="14730" firstSheet="2" activeTab="5" xr2:uid="{BFFAA7C4-7D43-4B25-8524-41C5805C3139}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="137">
   <si>
     <t>Flows</t>
   </si>
@@ -1113,7 +1113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DE44B7-0E98-43AD-9D19-4752E1A70ED9}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -1123,10 +1123,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="45" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="46" spans="1:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -1528,29 +1528,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76E8689-3982-4A5D-806A-6C42367E9EEF}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1558,13 +1558,13 @@
         <v>71</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1572,13 +1572,13 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1586,13 +1586,13 @@
         <v>72</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>123</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,13 +1600,13 @@
         <v>76</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>112</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1614,13 +1614,13 @@
         <v>81</v>
       </c>
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>79</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1628,13 +1628,13 @@
         <v>78</v>
       </c>
       <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>82</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1642,13 +1642,13 @@
         <v>87</v>
       </c>
       <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>88</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>113</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1656,13 +1656,13 @@
         <v>89</v>
       </c>
       <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>91</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>90</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1670,13 +1670,13 @@
         <v>136</v>
       </c>
       <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>92</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>93</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1684,13 +1684,13 @@
         <v>84</v>
       </c>
       <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
         <v>85</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1698,13 +1698,13 @@
         <v>94</v>
       </c>
       <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
         <v>95</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>96</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1712,13 +1712,13 @@
         <v>97</v>
       </c>
       <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
         <v>98</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>99</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1726,13 +1726,13 @@
         <v>100</v>
       </c>
       <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1740,13 +1740,13 @@
         <v>102</v>
       </c>
       <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
         <v>103</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1754,13 +1754,13 @@
         <v>104</v>
       </c>
       <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
         <v>105</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1768,13 +1768,13 @@
         <v>106</v>
       </c>
       <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>107</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1782,13 +1782,13 @@
         <v>108</v>
       </c>
       <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
         <v>58</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>109</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,13 +1796,13 @@
         <v>110</v>
       </c>
       <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
         <v>59</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>111</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1810,13 +1810,13 @@
         <v>114</v>
       </c>
       <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1824,13 +1824,13 @@
         <v>115</v>
       </c>
       <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
         <v>116</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>135</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1838,13 +1838,13 @@
         <v>117</v>
       </c>
       <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>65</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1852,13 +1852,13 @@
         <v>118</v>
       </c>
       <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
         <v>119</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>64</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +1870,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D11 D2:D10 D12:D23</xm:sqref>
+          <xm:sqref>B11 B2:B10 B12:B23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1883,7 +1883,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581469D6-935A-4294-89A2-CC24EABB20AD}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E25" sqref="E1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,8 +2668,9 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>66</v>
+      <c r="A45" t="str">
+        <f>Flows!A45</f>
+        <v>WNGT</v>
       </c>
       <c r="B45" s="6">
         <f>B17</f>
@@ -2686,7 +2687,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f>Flows!A45</f>
+        <f>Flows!A46</f>
         <v>WNST</v>
       </c>
       <c r="B46" s="6">
